--- a/report/results.xlsx
+++ b/report/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-34320" yWindow="2380" windowWidth="25040" windowHeight="17820" tabRatio="500" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="-34320" yWindow="2380" windowWidth="25040" windowHeight="17820" tabRatio="500" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="prop 2-2-100" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="final #2" sheetId="13" r:id="rId13"/>
     <sheet name="final #3 (noMacd)" sheetId="14" r:id="rId14"/>
     <sheet name="leafSize 9" sheetId="15" r:id="rId15"/>
-    <sheet name="final #3 (noMacd) (3)" sheetId="16" r:id="rId16"/>
+    <sheet name="final final#2" sheetId="16" r:id="rId16"/>
     <sheet name="final final" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -244,15 +244,6 @@
     <t>Map(UP -&gt; Map(UP -&gt; 6646, DOWN -&gt; 5269, NONE -&gt; 3003), NONE -&gt; Map(NONE -&gt; 4889, DOWN -&gt; 4931, UP -&gt; 5087), DOWN -&gt; Map(UP -&gt; 4845, DOWN -&gt; 6413, NONE -&gt; 2313))</t>
   </si>
   <si>
-    <t>UP -&gt; Map(UP -&gt; 6413, DOWN -&gt; 5315, NONE -&gt; 3190)</t>
-  </si>
-  <si>
-    <t>NONE -&gt; Map(NONE -&gt; 5067, DOWN -&gt; 4822, UP -&gt; 5018)</t>
-  </si>
-  <si>
-    <t>DOWN -&gt; Map(UP -&gt; 4773, DOWN -&gt; 6146, NONE -&gt; 2652)</t>
-  </si>
-  <si>
     <t>#trees: 1000, leafSize: 2, #features: 4, startTime: 2016-04-09T17:44:45.366+01:00</t>
   </si>
   <si>
@@ -263,6 +254,15 @@
   </si>
   <si>
     <t>DOWN -&gt; Map(NONE -&gt; 2383, UP -&gt; 4811, DOWN -&gt; 6377)</t>
+  </si>
+  <si>
+    <t>UP -&gt; Map(UP -&gt; 6623, DOWN -&gt; 5305, NONE -&gt; 2990)</t>
+  </si>
+  <si>
+    <t>NONE -&gt; Map(NONE -&gt; 4950, DOWN -&gt; 4901, UP -&gt; 5056)</t>
+  </si>
+  <si>
+    <t>DOWN -&gt; Map(NONE -&gt; 2333, DOWN -&gt; 6400, UP -&gt; 4838)</t>
   </si>
 </sst>
 </file>
@@ -326,8 +326,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -426,7 +474,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="141">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -473,6 +521,30 @@
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -519,6 +591,30 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2661,8 +2757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2689,20 +2785,20 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>6413</v>
+        <v>6623</v>
       </c>
       <c r="C3">
-        <v>5315</v>
+        <v>5305</v>
       </c>
       <c r="D3">
-        <v>3190</v>
+        <v>2990</v>
       </c>
       <c r="E3" s="1">
         <f>SUM(B3:D3)</f>
         <v>14918</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2710,20 +2806,20 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>4773</v>
+        <v>4838</v>
       </c>
       <c r="C4" s="2">
-        <v>6413</v>
+        <v>6400</v>
       </c>
       <c r="D4">
-        <v>2313</v>
+        <v>2333</v>
       </c>
       <c r="E4" s="1">
         <f>SUM(B4:D4)</f>
-        <v>13499</v>
+        <v>13571</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2731,20 +2827,20 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>5087</v>
+        <v>5056</v>
       </c>
       <c r="C5">
-        <v>4931</v>
+        <v>4901</v>
       </c>
       <c r="D5" s="2">
-        <v>4889</v>
+        <v>4950</v>
       </c>
       <c r="E5" s="1">
         <f>SUM(B5:D5)</f>
         <v>14907</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2753,19 +2849,19 @@
       </c>
       <c r="B6" s="1">
         <f>SUM(B3:B5)</f>
-        <v>16273</v>
+        <v>16517</v>
       </c>
       <c r="C6" s="1">
         <f>SUM(C3:C5)</f>
-        <v>16659</v>
+        <v>16606</v>
       </c>
       <c r="D6" s="1">
         <f>SUM(D3:D5)</f>
-        <v>10392</v>
+        <v>10273</v>
       </c>
       <c r="E6" s="1">
         <f>SUM(E3:E5)</f>
-        <v>43324</v>
+        <v>43396</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2779,7 +2875,7 @@
       </c>
       <c r="C9">
         <f>E3/E6</f>
-        <v>0.34433570307450834</v>
+        <v>0.34376440224905519</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2788,7 +2884,7 @@
       </c>
       <c r="C10">
         <f>E4/E6</f>
-        <v>0.31158249469116422</v>
+        <v>0.31272467508526131</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2797,7 +2893,7 @@
       </c>
       <c r="C11">
         <f>E5/E6</f>
-        <v>0.34408180223432738</v>
+        <v>0.34351092266568345</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2806,7 +2902,7 @@
       </c>
       <c r="B12">
         <f>(B3+C4+D5)/E6</f>
-        <v>0.40889576216415846</v>
+        <v>0.41416259563093372</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2820,7 +2916,7 @@
       </c>
       <c r="C14">
         <f>B3/B6</f>
-        <v>0.3940883672340687</v>
+        <v>0.40098080765272143</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2829,7 +2925,7 @@
       </c>
       <c r="C15">
         <f>C4/C6</f>
-        <v>0.38495708025691816</v>
+        <v>0.3854028664338191</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2838,7 +2934,7 @@
       </c>
       <c r="C16">
         <f>D5/D6</f>
-        <v>0.47045804464973057</v>
+        <v>0.48184561471819332</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2852,7 +2948,7 @@
       </c>
       <c r="C18">
         <f>B3/E3</f>
-        <v>0.42988336238101621</v>
+        <v>0.44396031639629979</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2861,7 +2957,7 @@
       </c>
       <c r="C19">
         <f>C4/E4</f>
-        <v>0.4750722275724128</v>
+        <v>0.47159383980546754</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2870,7 +2966,7 @@
       </c>
       <c r="C20">
         <f>D5/E5</f>
-        <v>0.32796672704098745</v>
+        <v>0.33205876433890119</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2879,7 +2975,7 @@
       </c>
       <c r="B21">
         <f>(C9 *C14) + (C10 * C15) +(C11 *C16)</f>
-        <v>0.41752063429922232</v>
+        <v>0.42388714553278561</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2888,7 +2984,7 @@
       </c>
       <c r="B22">
         <f>(C9 *C18) + (C10 * C19) +(C11 *C20)</f>
-        <v>0.40889576216415841</v>
+        <v>0.41416259563093372</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2897,7 +2993,7 @@
       </c>
       <c r="B23">
         <f>2*((B21*B22)/(B21+B22))</f>
-        <v>0.41316319161053394</v>
+        <v>0.41896844978357728</v>
       </c>
     </row>
   </sheetData>
@@ -2915,8 +3011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2926,7 +3022,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2961,7 +3057,7 @@
         <v>14918</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2982,7 +3078,7 @@
         <v>13571</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3003,7 +3099,7 @@
         <v>14907</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7">
